--- a/output/【河洛話注音】念奴嬌·斷虹霽雨.xlsx
+++ b/output/【河洛話注音】念奴嬌·斷虹霽雨.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC7DA385-9803-4556-B278-B873914FF66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D001D1-0901-4322-B614-4CD44296AD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{376869EE-C11B-4B72-B8C1-658E9A86F99B}"/>
   </bookViews>
@@ -3651,6 +3651,378 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;念&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liam7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嬌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiau1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ce3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;八&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;guat8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;七&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chit4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jit8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;同&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;諸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;poo7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;安&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;an1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;城&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lio5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;過&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;張&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄨㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khuan1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;待&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;goo2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;名&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;in1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;以&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;客&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gian7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;善&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sian2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;援&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;筆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pit4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;coo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄚㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gak8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;府&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;長&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;短&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;句&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ku3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;文&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;加&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;點&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆰˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiam2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cing7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;染&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆰˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiam2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;修&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;新&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kue3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;影&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;扶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;soo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;便&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pian7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;今&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;清&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ching1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;足&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cu3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;青&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ching1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;天&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;姮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;娥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;駕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lun5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;玉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;giok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;光&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;零&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;luan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;phian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;照&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciau2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;醽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;醁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;涼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;森&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sim1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;屬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;子&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;最&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cua3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;微&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bui5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;坐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;co2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p style='font-size: 0.6em;letter-spacing: 2px;text-align: right;'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='zhu_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;góo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsòo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">《念奴嬌·斷虹霽雨》【雙排注音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
@@ -3659,378 +4031,7 @@
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;念&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liam7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嬌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiau1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ce3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;代&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;黃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;庭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;八&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pat4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;月&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;guat8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;七&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chit4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jit8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;同&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;諸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;poo7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;自&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;安&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;an1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;城&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lio5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;過&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;張&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄨㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khuan1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;待&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tai2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;goo2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;名&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;in1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;以&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;酌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;客&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gian7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;善&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sian2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;笛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tik8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;援&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;筆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pit4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;coo3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄚㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gak8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;府&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;長&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;短&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tuan2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;句&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ku3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;文&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;加&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;點&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆰˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiam2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;淨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cing7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chiu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;空&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;染&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆰˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiam2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;修&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;眉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;新&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kue3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;影&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;扶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;soo3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;便&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pian7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;今&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sik8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;清&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ching1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;足&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cu3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;青&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ching1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;天&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;姮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hing5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;娥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;駕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lun5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;玉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;giok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;光&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;零&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;luan7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;phian1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;照&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciau2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;醽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;醁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;我&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;涼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liong5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;森&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sim1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;家&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cun1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;前&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cian5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;屬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;子&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ci2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;最&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄚ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cua3&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;微&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bui5&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;坐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;co2&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siong1&lt;/rt&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='fifteen_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/p&gt;&lt;p style='font-size: 0.6em;letter-spacing: 2px;text-align: right;'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='zhu_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div class='pin_yin'&gt;&lt;p style='font-size: 1.2em;letter-spacing: 2px;text-align: center;'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lôo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pōo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;偶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;góo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;作&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsòo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4496,12 +4497,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="255">
       <c r="A1" s="1" t="s">
-        <v>1177</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -4511,17 +4512,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4531,22 +4532,22 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -4556,32 +4557,32 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -4596,27 +4597,27 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -4626,12 +4627,12 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -4641,32 +4642,32 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4676,22 +4677,22 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -4701,12 +4702,12 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -4716,22 +4717,22 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -4741,12 +4742,12 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="52" spans="1:1">
@@ -4761,17 +4762,17 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="57" spans="1:1">
@@ -4781,12 +4782,12 @@
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -4796,12 +4797,12 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -4811,17 +4812,17 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -4831,42 +4832,42 @@
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="76" spans="1:1">
@@ -4876,22 +4877,22 @@
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -4911,22 +4912,22 @@
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -4936,17 +4937,17 @@
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="92" spans="1:1">
@@ -4956,32 +4957,32 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -5001,22 +5002,22 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -5026,17 +5027,17 @@
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -5046,32 +5047,32 @@
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="117" spans="1:1">
@@ -5091,7 +5092,7 @@
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="121" spans="1:1">
@@ -5101,12 +5102,12 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="124" spans="1:1">
@@ -5116,22 +5117,22 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="129" spans="1:1">
@@ -5141,27 +5142,27 @@
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -5181,22 +5182,22 @@
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="142" spans="1:1">
@@ -5206,32 +5207,32 @@
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -5261,12 +5262,12 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="156" spans="1:1">
@@ -5276,7 +5277,7 @@
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="158" spans="1:1">
@@ -5286,12 +5287,12 @@
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="161" spans="1:1">
@@ -5316,7 +5317,7 @@
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="166" spans="1:1">
@@ -5326,7 +5327,7 @@
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="168" spans="1:1">
@@ -5376,12 +5377,12 @@
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="179" spans="1:1">
@@ -5406,22 +5407,22 @@
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="187" spans="1:1">
@@ -5446,7 +5447,7 @@
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="192" spans="1:1">
@@ -5481,7 +5482,7 @@
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -5491,7 +5492,7 @@
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="201" spans="1:1">
@@ -5506,12 +5507,12 @@
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="205" spans="1:1">
@@ -5541,7 +5542,7 @@
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="211" spans="1:1">
@@ -5556,7 +5557,7 @@
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="214" spans="1:1">
@@ -5576,7 +5577,7 @@
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="218" spans="1:1">
@@ -9337,7 +9338,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9392,7 +9393,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -10459,7 +10460,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10514,7 +10515,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -11581,7 +11582,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -11596,7 +11597,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -11636,7 +11637,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -11721,7 +11722,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -11796,7 +11797,7 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="46" spans="1:1">
@@ -11921,7 +11922,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -12703,7 +12704,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -12758,7 +12759,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -13825,7 +13826,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -13880,7 +13881,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -14947,7 +14948,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -15002,7 +15003,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="14" spans="1:1">
